--- a/assets/files/CV18.xlsx
+++ b/assets/files/CV18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,1997 +626,1997 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>53.030303030303031</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>12.626262626262626</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>31.313131313131311</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>2.5252525252525251</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>0.50505050505050508</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>198</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>50.802139037433157</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>20.855614973262032</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>23.529411764705884</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>4.8128342245989302</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>187</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>51.948051948051948</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>16.623376623376622</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>27.532467532467532</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>3.6363636363636362</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.25974025974025972</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>38.211382113821138</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>32.926829268292686</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>14.634146341463415</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>14.227642276422765</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>246</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>30.578512396694215</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>40.495867768595041</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>10.743801652892563</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>17.355371900826448</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.82644628099173556</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>35.694822888283376</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>35.422343324250683</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>13.35149863760218</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>15.258855585831062</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.27247956403269757</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>27.688787185354691</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>8.2379862700228834</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>59.954233409610985</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>2.7459954233409611</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>1.3729977116704806</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>437</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>37.037037037037038</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>11.522633744855968</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>50.617283950617285</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>0.82304526748971196</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
         <v>243</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>31.029411764705884</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>9.4117647058823533</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>56.617647058823529</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>2.0588235294117645</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>0.88235294117647056</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>51.898734177215189</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>25.316455696202532</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>22.784810126582279</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>51.798561151079134</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>17.266187050359711</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>28.776978417266186</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>1.7985611510791366</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.35971223021582732</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>51.820728291316527</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>27.450980392156861</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>1.4005602240896358</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>35.028248587570623</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>9.0395480225988702</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>45.762711864406782</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>4.5197740112994351</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>5.6497175141242941</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>177</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>42.424242424242422</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>10.1010101010101</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>8.0808080808080813</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>99</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>37.681159420289852</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>9.420289855072463</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>41.304347826086953</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>26.288659793814432</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>8.2474226804123703</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>60.309278350515463</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3.6082474226804124</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>1.5463917525773196</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>194</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>22.535211267605632</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>3.2863849765258215</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>71.36150234741784</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>24.324324324324323</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>5.6511056511056514</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>66.0933660933661</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>2.4570024570024569</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>1.4742014742014742</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>11.627906976744185</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>18.604651162790699</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>32.558139534883722</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>37.209302325581397</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>37.61467889908257</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>10.091743119266056</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>46.48318042813456</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>5.81039755351682</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>34.594594594594597</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>11.081081081081081</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>44.864864864864863</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>9.4594594594594597</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>28.45528455284553</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>11.382113821138212</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>56.50406504065041</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>2.4390243902439024</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>1.2195121951219512</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>47.482014388489212</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>15.827338129496402</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>25.899280575539567</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>9.3525179856115113</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>1.4388489208633093</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>35.324675324675326</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>12.987012987012987</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>45.454545454545453</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>4.9350649350649354</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1.2987012987012987</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>18.390804597701148</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>14.942528735632184</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>62.068965517241381</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>33.451957295373667</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>2.1352313167259784</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>58.362989323843415</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>1.7793594306049823</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>4.2704626334519569</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>29.891304347826086</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>5.1630434782608692</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>59.239130434782609</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>2.1739130434782608</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>3.5326086956521738</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>23.618090452261306</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>74.874371859296488</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>21.666666666666668</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>3.8888888888888888</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>74.444444444444443</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>22.691292875989447</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>1.8469656992084433</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>74.670184696569919</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>0.79155672823218992</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>88.444444444444443</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>7.1111111111111107</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>225</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>81.168831168831176</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>10.38961038961039</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>7.7922077922077921</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>85.48812664907652</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>8.4432717678100264</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>5.5408970976253302</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>0.52770448548812665</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>34.649122807017541</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>5.7017543859649127</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>7.0175438596491224</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>228</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>34.25925925925926</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>9.2592592592592595</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>55.555555555555557</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>0.92592592592592593</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>34.523809523809526</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>10.119047619047619</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>46.428571428571431</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>3.8690476190476191</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>5.0595238095238093</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>28.45528455284553</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>4.0650406504065044</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>65.853658536585371</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>1.6260162601626016</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>24.701195219123505</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>3.5856573705179282</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>69.721115537848604</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>1.1952191235059761</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>0.79681274900398402</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>25.935828877005349</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>3.7433155080213902</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>68.44919786096257</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>1.3368983957219251</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>0.53475935828877008</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>47.916666666666664</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>37.5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>10.416666666666666</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>42.642642642642642</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>50.150150150150154</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>3.9039039039039038</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>3.3033033033033035</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>333</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>43.30708661417323</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>48.556430446194227</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>4.7244094488188972</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>3.4120734908136483</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>43.243243243243242</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>1.3513513513513513</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>55.405405405405403</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>148</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>44.067796610169495</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>2.5423728813559321</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>53.389830508474574</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>43.75</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>54.166666666666664</v>
       </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>27.807486631016044</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>10.160427807486631</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>57.486631016042779</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>4.2780748663101607</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.26737967914438504</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>374</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>27.807486631016044</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>10.160427807486631</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>57.486631016042779</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>4.2780748663101607</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.26737967914438504</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>53.846153846153847</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>39.296187683284458</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>31.378299120234605</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>10.850439882697946</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>17.302052785923753</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.1730205278592376</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>341</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>40.789473684210527</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>29.473684210526315</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>11.315789473684211</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>17.105263157894736</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>1.3157894736842106</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>23.563218390804597</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>0.57471264367816088</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>75.862068965517238</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>42.076502732240435</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>57.923497267759565</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>33.05322128851541</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>66.666666666666671</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>25</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>34.375</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>21.875</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>18.75</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>32</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>24.383561643835616</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>43.013698630136986</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>6.5753424657534243</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>24.657534246575342</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.3698630136986301</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>365</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>24.433249370277078</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>42.31738035264484</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>7.8085642317380355</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>24.181360201511335</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>1.2594458438287153</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>44.827586206896555</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>8.8669950738916263</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>44.334975369458128</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>1.9704433497536946</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>47.222222222222221</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>13.888888888888889</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>35.555555555555557</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>3.3333333333333335</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>45.95300261096606</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>11.22715404699739</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>40.208877284595303</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>2.6109660574412534</v>
       </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>36.994219653179194</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>8.6705202312138727</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>53.75722543352601</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
         <v>0.5780346820809249</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>45.098039215686278</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>11.274509803921569</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>40.196078431372548</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>204</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>41.379310344827587</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>10.079575596816976</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>46.419098143236077</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>1.0610079575596818</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>1.0610079575596818</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>31.382978723404257</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>11.170212765957446</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>54.787234042553195</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>2.6595744680851063</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>38.144329896907216</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>11.855670103092784</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>43.814432989690722</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>5.1546391752577323</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.0309278350515463</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>194</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>34.816753926701573</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>11.518324607329843</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>49.214659685863872</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>3.9267015706806281</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>0.52356020942408377</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>45</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.4375</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>50.9375</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>0.625</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>19.672131147540984</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>73.770491803278688</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>4.918032786885246</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>61</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>40.944881889763778</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>3.1496062992125986</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>54.593175853018373</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>1.3123359580052494</v>
       </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>27.659574468085108</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>6.9148936170212769</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>63.297872340425535</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>35.9375</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>7.8125</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>50</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>31.842105263157894</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>7.3684210526315788</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>56.578947368421055</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>2.6315789473684212</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.5789473684210527</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>48.958333333333336</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>26.388888888888889</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>22.916666666666668</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>0.86805555555555558</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>0.86805555555555558</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>44.237918215613384</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>25.278810408921935</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>22.973977695167285</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>6.5427509293680295</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>0.96654275092936803</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1345</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>45.653305570015618</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>25.611660593440917</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>22.956793336803749</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>4.8412285268089539</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>0.93701197293076521</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1921</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>58.823529411764703</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>33.823529411764703</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>56.896551724137929</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>22.796934865900383</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>16.475095785440612</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>2.6819923371647509</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>522</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>57.294832826747722</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>25.075987841945288</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>2.43161094224924</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.91185410334346506</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>16.541353383458645</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>50.375939849624061</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>0.75187969924812026</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>3.7593984962406015</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>35.978835978835981</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>48.677248677248677</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>2.6455026455026456</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>1.5873015873015872</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>189</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>32.919254658385093</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>13.354037267080745</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>49.378881987577643</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>1.8633540372670807</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>2.4844720496894408</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>23.766816143497756</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>22.869955156950674</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>44.843049327354258</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>7.623318385650224</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>0.89686098654708524</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>223</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>25.409836065573771</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>9.0163934426229506</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>63.114754098360656</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>24.347826086956523</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>17.971014492753625</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>51.304347826086953</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>5.5072463768115938</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>0.86956521739130432</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>40.909090909090907</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>11.038961038961039</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>46.103896103896105</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.2987012987012987</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>154</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>42.241379310344826</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>12.068965517241379</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>42.241379310344826</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>1.7241379310344827</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>1.7241379310344827</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>41.709844559585491</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>11.658031088082902</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>43.782383419689118</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>1.2953367875647668</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>1.5544041450777202</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>18.918918918918919</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>4.5045045045045047</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>74.77477477477477</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>43.382352941176471</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>17.647058823529413</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>31.985294117647058</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>0.73529411764705888</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>6.25</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>36.29242819843342</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>13.838120104438643</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>44.386422976501308</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>4.9608355091383816</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>20</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
         <v>73.333333333333329</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>31.111111111111111</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>6.9444444444444446</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>58.888888888888886</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>2.2222222222222223</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>30.666666666666668</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>59.466666666666669</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>2.4</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>0.8</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>375</v>
       </c>
     </row>
